--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
     <sheet name="structural" sheetId="2" r:id="rId2"/>
     <sheet name="performance" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Data set</t>
   </si>
@@ -40,6 +41,21 @@
   </si>
   <si>
     <t>FN</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
   </si>
 </sst>
 </file>
@@ -92,6 +108,1462 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trump</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$AH$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>204000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>178000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>140000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Syria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Football</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="38000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>190000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volkswagen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$AH$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eclipse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="29000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$AH$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262638224"/>
+        <c:axId val="262635424"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="262638224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262635424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="262635424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262638224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -674,4 +2146,510 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AH6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>200000</v>
+      </c>
+      <c r="E2">
+        <v>160000</v>
+      </c>
+      <c r="F2">
+        <v>200000</v>
+      </c>
+      <c r="G2">
+        <v>170000</v>
+      </c>
+      <c r="H2">
+        <v>80000</v>
+      </c>
+      <c r="I2">
+        <v>190000</v>
+      </c>
+      <c r="J2">
+        <v>190000</v>
+      </c>
+      <c r="K2">
+        <v>180000</v>
+      </c>
+      <c r="L2">
+        <v>175000</v>
+      </c>
+      <c r="M2">
+        <v>180000</v>
+      </c>
+      <c r="N2">
+        <v>180000</v>
+      </c>
+      <c r="O2">
+        <v>180000</v>
+      </c>
+      <c r="P2">
+        <v>190000</v>
+      </c>
+      <c r="Q2">
+        <v>18000</v>
+      </c>
+      <c r="R2">
+        <v>175000</v>
+      </c>
+      <c r="S2">
+        <v>170000</v>
+      </c>
+      <c r="T2">
+        <v>180000</v>
+      </c>
+      <c r="U2">
+        <v>185000</v>
+      </c>
+      <c r="V2">
+        <v>190000</v>
+      </c>
+      <c r="W2">
+        <v>205000</v>
+      </c>
+      <c r="X2">
+        <v>800000</v>
+      </c>
+      <c r="Y2">
+        <v>204000</v>
+      </c>
+      <c r="Z2">
+        <v>180000</v>
+      </c>
+      <c r="AA2">
+        <v>175000</v>
+      </c>
+      <c r="AB2">
+        <v>177000</v>
+      </c>
+      <c r="AC2">
+        <v>175000</v>
+      </c>
+      <c r="AD2">
+        <v>175000</v>
+      </c>
+      <c r="AE2">
+        <v>177000</v>
+      </c>
+      <c r="AF2">
+        <v>178000</v>
+      </c>
+      <c r="AG2">
+        <v>150000</v>
+      </c>
+      <c r="AH2">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="3" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>20000</v>
+      </c>
+      <c r="F3">
+        <v>20000</v>
+      </c>
+      <c r="G3">
+        <v>25000</v>
+      </c>
+      <c r="H3">
+        <v>20000</v>
+      </c>
+      <c r="I3">
+        <v>25000</v>
+      </c>
+      <c r="J3">
+        <v>50000</v>
+      </c>
+      <c r="K3">
+        <v>50000</v>
+      </c>
+      <c r="L3">
+        <v>60000</v>
+      </c>
+      <c r="M3">
+        <v>70000</v>
+      </c>
+      <c r="N3">
+        <v>70000</v>
+      </c>
+      <c r="O3">
+        <v>90000</v>
+      </c>
+      <c r="P3">
+        <v>90000</v>
+      </c>
+      <c r="Q3">
+        <v>60000</v>
+      </c>
+      <c r="R3">
+        <v>90000</v>
+      </c>
+      <c r="S3">
+        <v>90000</v>
+      </c>
+      <c r="T3">
+        <v>90000</v>
+      </c>
+      <c r="U3">
+        <v>90000</v>
+      </c>
+      <c r="V3">
+        <v>90000</v>
+      </c>
+      <c r="W3">
+        <v>90000</v>
+      </c>
+      <c r="X3">
+        <v>60000</v>
+      </c>
+      <c r="Y3">
+        <v>90000</v>
+      </c>
+      <c r="Z3">
+        <v>86000</v>
+      </c>
+      <c r="AA3">
+        <v>60000</v>
+      </c>
+      <c r="AB3">
+        <v>60000</v>
+      </c>
+      <c r="AC3">
+        <v>60000</v>
+      </c>
+      <c r="AD3">
+        <v>50000</v>
+      </c>
+      <c r="AE3">
+        <v>50000</v>
+      </c>
+      <c r="AF3">
+        <v>50000</v>
+      </c>
+      <c r="AG3">
+        <v>45000</v>
+      </c>
+      <c r="AH3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>300000</v>
+      </c>
+      <c r="E4">
+        <v>150000</v>
+      </c>
+      <c r="F4">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>200000</v>
+      </c>
+      <c r="H4">
+        <v>80000</v>
+      </c>
+      <c r="I4">
+        <v>320000</v>
+      </c>
+      <c r="J4">
+        <v>320000</v>
+      </c>
+      <c r="K4">
+        <v>400000</v>
+      </c>
+      <c r="L4">
+        <v>240000</v>
+      </c>
+      <c r="M4">
+        <v>200000</v>
+      </c>
+      <c r="N4">
+        <v>220000</v>
+      </c>
+      <c r="O4">
+        <v>200000</v>
+      </c>
+      <c r="P4">
+        <v>250000</v>
+      </c>
+      <c r="Q4">
+        <v>300000</v>
+      </c>
+      <c r="R4">
+        <v>350000</v>
+      </c>
+      <c r="S4">
+        <v>450000</v>
+      </c>
+      <c r="T4">
+        <v>250000</v>
+      </c>
+      <c r="U4">
+        <v>200000</v>
+      </c>
+      <c r="V4">
+        <v>150000</v>
+      </c>
+      <c r="W4">
+        <v>150000</v>
+      </c>
+      <c r="X4">
+        <v>220000</v>
+      </c>
+      <c r="Y4">
+        <v>300000</v>
+      </c>
+      <c r="Z4">
+        <v>300000</v>
+      </c>
+      <c r="AA4">
+        <v>180000</v>
+      </c>
+      <c r="AB4">
+        <v>180000</v>
+      </c>
+      <c r="AC4">
+        <v>180000</v>
+      </c>
+      <c r="AD4">
+        <v>180000</v>
+      </c>
+      <c r="AE4">
+        <v>180000</v>
+      </c>
+      <c r="AF4">
+        <v>220000</v>
+      </c>
+      <c r="AG4">
+        <v>200000</v>
+      </c>
+      <c r="AH4">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>10000</v>
+      </c>
+      <c r="AA5">
+        <v>10000</v>
+      </c>
+      <c r="AB5">
+        <v>20000</v>
+      </c>
+      <c r="AC5">
+        <v>100000</v>
+      </c>
+      <c r="AD5">
+        <v>150000</v>
+      </c>
+      <c r="AE5">
+        <v>300000</v>
+      </c>
+      <c r="AF5">
+        <v>150000</v>
+      </c>
+      <c r="AG5">
+        <v>100000</v>
+      </c>
+      <c r="AH5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>10000</v>
+      </c>
+      <c r="AD6">
+        <v>10000</v>
+      </c>
+      <c r="AE6">
+        <v>50000</v>
+      </c>
+      <c r="AF6">
+        <v>100000</v>
+      </c>
+      <c r="AG6">
+        <v>150000</v>
+      </c>
+      <c r="AH6">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -146,8 +146,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="36000"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -784,16 +785,79 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262638224"/>
-        <c:axId val="262635424"/>
+        <c:axId val="112158752"/>
+        <c:axId val="112159312"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="262638224"/>
+        <c:axId val="112158752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5573733353193433"/>
+              <c:y val="0.78192888385593473"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -830,7 +894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262635424"/>
+        <c:crossAx val="112159312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262635424"/>
+        <c:axId val="112159312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,6 +922,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tweet count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -889,7 +1009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262638224"/>
+        <c:crossAx val="112158752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -903,7 +1023,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19555031065200659"/>
+          <c:y val="4.1340982363457408E-2"/>
+          <c:w val="0.75250798758171822"/>
+          <c:h val="8.1728137617258903E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1535,16 +1664,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2152,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView tabSelected="1" topLeftCell="Y6" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="performance" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Data set</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Nagative</t>
   </si>
 </sst>
 </file>
@@ -785,11 +791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112158752"/>
-        <c:axId val="112159312"/>
+        <c:axId val="199423280"/>
+        <c:axId val="199423840"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="112158752"/>
+        <c:axId val="199423280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112159312"/>
+        <c:crossAx val="199423840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112159312"/>
+        <c:axId val="199423840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112158752"/>
+        <c:crossAx val="199423280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1047,6 +1053,472 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$AH$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>153846.15384615384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76923.076923076922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51282.051282051281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102564.10256410256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41025.641025641024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164102.56410256409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164102.56410256409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205128.20512820513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123076.92307692308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102564.10256410256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112820.51282051283</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102564.10256410256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128205.1282051282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153846.15384615384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179487.1794871795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>230769.23076923078</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128205.1282051282</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102564.10256410256</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76923.076923076922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76923.076923076922</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112820.51282051283</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153846.15384615384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>153846.15384615384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92307.692307692312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92307.692307692312</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92307.692307692312</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92307.692307692312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92307.692307692312</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112820.51282051283</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>102564.10256410256</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97435.897435897437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nagative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>146153.84615384616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73076.923076923078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48717.948717948719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97435.897435897437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38974.358974358976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155897.43589743591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155897.43589743591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>194871.79487179487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116923.07692307692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97435.897435897437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107179.48717948717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97435.897435897437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121794.8717948718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>146153.84615384616</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170512.8205128205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219230.76923076922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121794.8717948718</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97435.897435897437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73076.923076923078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73076.923076923078</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107179.48717948717</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>146153.84615384616</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>146153.84615384616</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87692.307692307688</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87692.307692307688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87692.307692307688</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87692.307692307688</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87692.307692307688</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107179.48717948717</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97435.897435897437</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92564.102564102563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="257278304"/>
+        <c:axId val="257279424"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="257278304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257279424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="257279424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257278304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1139,6 +1611,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -1660,20 +2172,541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1687,6 +2720,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2279,10 +3342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AH6"/>
+  <dimension ref="C2:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y6" workbookViewId="0">
-      <selection activeCell="AN21" sqref="AN21"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,6 +3840,264 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="9" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <f>D4/1.95</f>
+        <v>153846.15384615384</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:AH9" si="0">E4/1.95</f>
+        <v>76923.076923076922</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>51282.051282051281</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>102564.10256410256</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>41025.641025641024</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>164102.56410256409</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>164102.56410256409</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>205128.20512820513</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>123076.92307692308</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>102564.10256410256</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>112820.51282051283</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>102564.10256410256</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>128205.1282051282</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>153846.15384615384</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>179487.1794871795</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>230769.23076923078</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>128205.1282051282</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>102564.10256410256</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>76923.076923076922</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>76923.076923076922</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>112820.51282051283</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>153846.15384615384</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>153846.15384615384</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>92307.692307692312</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>92307.692307692312</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>92307.692307692312</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>92307.692307692312</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>92307.692307692312</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>112820.51282051283</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>102564.10256410256</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>97435.897435897437</v>
+      </c>
+    </row>
+    <row r="10" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>D4-D9</f>
+        <v>146153.84615384616</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:AH10" si="1">E4-E9</f>
+        <v>73076.923076923078</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>48717.948717948719</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>97435.897435897437</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>38974.358974358976</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>155897.43589743591</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>155897.43589743591</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>194871.79487179487</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>116923.07692307692</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>97435.897435897437</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>107179.48717948717</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>97435.897435897437</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>121794.8717948718</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>146153.84615384616</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>170512.8205128205</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>219230.76923076922</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>121794.8717948718</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>97435.897435897437</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>73076.923076923078</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>73076.923076923078</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>107179.48717948717</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>146153.84615384616</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>146153.84615384616</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>87692.307692307688</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>87692.307692307688</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>87692.307692307688</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>87692.307692307688</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>87692.307692307688</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="1"/>
+        <v>107179.48717948717</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="1"/>
+        <v>97435.897435897437</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="1"/>
+        <v>92564.102564102563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>Nagative</t>
+    <t>Negative</t>
   </si>
 </sst>
 </file>
@@ -791,11 +791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199423280"/>
-        <c:axId val="199423840"/>
+        <c:axId val="171576816"/>
+        <c:axId val="171577376"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="199423280"/>
+        <c:axId val="171576816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199423840"/>
+        <c:crossAx val="171577376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -908,7 +908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199423840"/>
+        <c:axId val="171577376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +954,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1015,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199423280"/>
+        <c:crossAx val="171576816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1260,7 +1259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nagative</c:v>
+                  <c:v>Negative</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1385,11 +1384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257278304"/>
-        <c:axId val="257279424"/>
+        <c:axId val="171581296"/>
+        <c:axId val="171581856"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="257278304"/>
+        <c:axId val="171581296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257279424"/>
+        <c:crossAx val="171581856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257279424"/>
+        <c:axId val="171581856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257278304"/>
+        <c:crossAx val="171581296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3344,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:AH10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
